--- a/INOVEL_Analise_Dados.xlsx
+++ b/INOVEL_Analise_Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui_h\Desktop\INOVEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui_h\Desktop\INOVEL\inovel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE5F04-8CB4-4942-9274-C9E8584AE568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397EC9DC-E022-4CFF-A088-7D69DC33F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Padrões_Identificados" sheetId="1" r:id="rId1"/>
@@ -914,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1371,11 +1371,6 @@
               <a:rPr lang="en-GB"/>
               <a:t>Marketplaces</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> usados</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1383,8 +1378,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74138487078627935"/>
-          <c:y val="0.16462962962962963"/>
+          <c:x val="0.75477633052877735"/>
+          <c:y val="0.11288888888888889"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1588,7 +1583,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Desafios Mais Frequentes</a:t>
+              <a:t>Desafios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1597,8 +1592,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69090215467252647"/>
-          <c:y val="0.19248121360797418"/>
+          <c:x val="0.71069112969405968"/>
+          <c:y val="0.11638398962342625"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1749,7 +1744,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Número de Usuários</a:t>
+                  <a:t>Número de Users</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2024,11 +2019,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5674320" cy="2700000"/>
+    <xdr:ext cx="6115050" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="Chart 10">
@@ -2110,91 +2105,6 @@
         <row r="5">
           <cell r="B5" t="str">
             <v>Percentagem</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Amazon</v>
-          </cell>
-          <cell r="B6">
-            <v>0.90476190476190477</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>OLX</v>
-          </cell>
-          <cell r="B7">
-            <v>0.42857142857142849</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Facebook Marketplace</v>
-          </cell>
-          <cell r="B8">
-            <v>0.38095238095238088</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Worten Marketplace</v>
-          </cell>
-          <cell r="B9">
-            <v>0.2857142857142857</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>eBay</v>
-          </cell>
-          <cell r="B10">
-            <v>0.14285714285714279</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Percentagem</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Inserir produtos manualmente</v>
-          </cell>
-          <cell r="B16">
-            <v>0.52380952380952384</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Atualizar stock</v>
-          </cell>
-          <cell r="B17">
-            <v>0.38095238095238088</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Sincronizar produtos/descrições</v>
-          </cell>
-          <cell r="B18">
-            <v>0.33333333333333331</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Gerir mensagens</v>
-          </cell>
-          <cell r="B19">
-            <v>0.33333333333333331</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Inventário em tempo real</v>
-          </cell>
-          <cell r="B20">
-            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="25">
@@ -3197,7 +3107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3587,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="X60" sqref="X60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3613,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
